--- a/data/trans_bre/iP13_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/iP13_R-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>-17,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>-10,65%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-6,22%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>-32,7%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,67</t>
+          <t>-4,39; 2,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 3,12</t>
+          <t>-3,86; 2,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,69</t>
+          <t>-2,89; 3,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 3,14</t>
+          <t>-5,92; 1,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,94; 100,43</t>
+          <t>-60,25; 61,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,96; 91,74</t>
+          <t>-56,99; 92,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-55,92; 100,08</t>
+          <t>-47,97; 121,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,69; 71,24</t>
+          <t>-65,22; 45,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-17,21%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-10,65%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>-6,22%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-32,7%</t>
+          <t>4,31%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 2,26</t>
+          <t>-2,73; 2,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 2,96</t>
+          <t>-3,06; 3,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 3,24</t>
+          <t>-3,03; 2,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 1,71</t>
+          <t>-2,8; 3,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-60,25; 61,11</t>
+          <t>-48,94; 100,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-56,99; 92,74</t>
+          <t>-47,96; 91,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-47,97; 121,04</t>
+          <t>-55,92; 100,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-65,22; 45,02</t>
+          <t>-37,69; 71,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP13_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/iP13_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-15,55%</t>
+          <t>-1,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-21,14%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>66,3%</t>
+          <t>80,84%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-12,58%</t>
+          <t>40,31%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 2,48</t>
+          <t>-5,31; 5,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 2,05</t>
+          <t>-5,35; 5,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 7,16</t>
+          <t>-1,37; 7,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 4,08</t>
+          <t>-4,09; 8,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-58,41; 63,91</t>
+          <t>-59,32; 122,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-55,56; 35,41</t>
+          <t>-47,83; 107,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 216,51</t>
+          <t>-28,31; 357,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-60,18; 78,64</t>
+          <t>-60,03; 533,28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-17,21%</t>
+          <t>-5,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-10,65%</t>
+          <t>-33,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>53,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-32,7%</t>
+          <t>-26,44%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 2,26</t>
+          <t>-3,19; 2,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 2,96</t>
+          <t>-5,95; 1,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 3,24</t>
+          <t>-1,13; 5,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 1,71</t>
+          <t>-6,58; 2,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-60,25; 61,11</t>
+          <t>-52,27; 77,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-56,99; 92,74</t>
+          <t>-65,56; 27,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-47,97; 121,04</t>
+          <t>-19,88; 184,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-65,22; 45,02</t>
+          <t>-63,02; 39,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-3,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>-54,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>41,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-6,22%</t>
+          <t>-22,15%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>-21,78%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,67</t>
+          <t>-7,33; 0,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 3,12</t>
+          <t>-2,38; 4,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,69</t>
+          <t>-4,61; 2,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 3,14</t>
+          <t>-6,02; 2,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-48,94; 100,43</t>
+          <t>-84,28; 34,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-47,96; 91,74</t>
+          <t>-63,95; 371,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-55,92; 100,08</t>
+          <t>-66,53; 108,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-37,69; 71,24</t>
+          <t>-59,74; 58,89</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,68%</t>
+          <t>31,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-11,47%</t>
+          <t>-15,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>-16,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-10,47%</t>
+          <t>5,29%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 1,39</t>
+          <t>-2,06; 3,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 1,56</t>
+          <t>-5,23; 3,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,67</t>
+          <t>-4,35; 2,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 1,56</t>
+          <t>-3,08; 3,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,22; 31,18</t>
+          <t>-49,76; 191,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,97; 31,39</t>
+          <t>-60,86; 86,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,21; 74,36</t>
+          <t>-78,18; 119,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,65; 29,94</t>
+          <t>-47,34; 100,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,53</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,7</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-10,68%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-11,47%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19,18%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-10,47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 1,26</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,93; 1,39</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,03; 2,62</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-2,87; 1,64</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-39,77; 31,39</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-39,74; 26,28</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-21,3; 72,0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-37,77; 30,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/iP13_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/iP13_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 5,35</t>
+          <t>-5,51; 5,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 5,9</t>
+          <t>-4,53; 5,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 7,85</t>
+          <t>-1,27; 8,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 8,81</t>
+          <t>-4,47; 8,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-59,32; 122,03</t>
+          <t>-56,86; 122,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-47,83; 107,32</t>
+          <t>-44,96; 123,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-28,31; 357,46</t>
+          <t>-28,89; 318,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-60,03; 533,28</t>
+          <t>-59,92; 410,56</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 2,5</t>
+          <t>-3,0; 2,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 1,08</t>
+          <t>-5,82; 1,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 5,64</t>
+          <t>-0,98; 5,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 2,15</t>
+          <t>-6,43; 2,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,27; 77,71</t>
+          <t>-48,62; 89,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-65,56; 27,88</t>
+          <t>-66,18; 23,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,88; 184,14</t>
+          <t>-18,73; 183,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,02; 39,44</t>
+          <t>-64,4; 49,18</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 0,88</t>
+          <t>-7,87; 0,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 4,46</t>
+          <t>-2,28; 4,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 2,75</t>
+          <t>-4,73; 2,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 2,63</t>
+          <t>-6,28; 2,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-84,28; 34,99</t>
+          <t>-89,57; 25,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-63,95; 371,09</t>
+          <t>-59,46; 383,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-66,53; 108,55</t>
+          <t>-65,45; 84,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-59,74; 58,89</t>
+          <t>-62,99; 52,0</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 3,91</t>
+          <t>-2,05; 3,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 3,1</t>
+          <t>-5,07; 3,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 2,56</t>
+          <t>-3,97; 2,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 3,52</t>
+          <t>-3,31; 3,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,76; 191,28</t>
+          <t>-49,66; 217,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-60,86; 86,46</t>
+          <t>-61,42; 78,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-78,18; 119,15</t>
+          <t>-72,29; 115,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,34; 100,24</t>
+          <t>-48,72; 103,72</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,26</t>
+          <t>-2,34; 1,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 1,39</t>
+          <t>-2,87; 1,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,62</t>
+          <t>-0,91; 2,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,64</t>
+          <t>-2,82; 1,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-39,77; 31,39</t>
+          <t>-39,87; 27,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-39,74; 26,28</t>
+          <t>-38,22; 24,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 72,0</t>
+          <t>-18,06; 76,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-37,77; 30,47</t>
+          <t>-36,94; 32,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP13_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/iP13_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>40,31%</t>
+          <t>30,27%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 5,48</t>
+          <t>-5,73; 5,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 5,8</t>
+          <t>-5,17; 5,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 8,0</t>
+          <t>-1,1; 7,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 8,36</t>
+          <t>-4,81; 8,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-56,86; 122,49</t>
+          <t>-59,26; 122,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-44,96; 123,33</t>
+          <t>-49,69; 108,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-28,89; 318,65</t>
+          <t>-24,16; 384,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-59,92; 410,56</t>
+          <t>-65,38; 381,31</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-26,44%</t>
+          <t>-28,37%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 2,9</t>
+          <t>-3,1; 2,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 1,14</t>
+          <t>-6,14; 1,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 5,5</t>
+          <t>-1,11; 5,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 2,54</t>
+          <t>-6,7; 2,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,62; 89,18</t>
+          <t>-51,98; 85,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,18; 23,98</t>
+          <t>-66,53; 30,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 183,23</t>
+          <t>-19,27; 188,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-64,4; 49,18</t>
+          <t>-66,05; 33,88</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-21,78%</t>
+          <t>-17,45%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 0,55</t>
+          <t>-8,06; 0,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 4,61</t>
+          <t>-2,59; 4,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 2,47</t>
+          <t>-4,66; 2,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 2,61</t>
+          <t>-5,93; 3,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-89,57; 25,89</t>
+          <t>-88,07; 35,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-59,46; 383,68</t>
+          <t>-60,44; 335,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-65,45; 84,73</t>
+          <t>-66,24; 82,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-62,99; 52,0</t>
+          <t>-58,65; 62,65</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>2,29%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 3,98</t>
+          <t>-1,74; 4,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 3,06</t>
+          <t>-4,94; 3,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 2,64</t>
+          <t>-4,01; 3,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 3,85</t>
+          <t>-2,99; 3,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,66; 217,83</t>
+          <t>-46,41; 214,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-61,42; 78,86</t>
+          <t>-61,42; 82,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-72,29; 115,66</t>
+          <t>-73,05; 167,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,72; 103,72</t>
+          <t>-46,67; 97,13</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-10,47%</t>
+          <t>-11,53%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 1,13</t>
+          <t>-2,21; 1,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,23</t>
+          <t>-2,57; 1,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,71</t>
+          <t>-0,82; 2,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 1,64</t>
+          <t>-2,91; 1,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-39,87; 27,52</t>
+          <t>-38,22; 31,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-38,22; 24,0</t>
+          <t>-36,97; 31,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-18,06; 76,1</t>
+          <t>-17,21; 74,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-36,94; 32,57</t>
+          <t>-39,13; 29,26</t>
         </is>
       </c>
     </row>
